--- a/data/trans_bre/P34_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.153951842197521</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.984678049273148</v>
+        <v>1.984678049273159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1013431034905836</v>
@@ -649,7 +649,7 @@
         <v>-0.06522132773342743</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05895016376759847</v>
+        <v>0.0589501637675988</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.25201768853065</v>
+        <v>-9.230692828682933</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.51460231395924</v>
+        <v>-5.271852275262663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.00306326655304</v>
+        <v>-5.836966050443855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.666695200864162</v>
+        <v>-3.808357087745819</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.212397524122494</v>
+        <v>-0.2131882452804411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.171770644249396</v>
+        <v>-0.1625497378817441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1730980836242106</v>
+        <v>-0.1665858807624179</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.09570424137567672</v>
+        <v>-0.1017634107498805</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.249907612601216</v>
+        <v>1.167368957698592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.620430920166072</v>
+        <v>2.881092037702282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.911603534362275</v>
+        <v>1.860066855558885</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.782621032794215</v>
+        <v>7.954670602024609</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04031868080363489</v>
+        <v>0.03194032482126213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0949510686838389</v>
+        <v>0.1020940793463536</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06261153251413373</v>
+        <v>0.05901199008673827</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2552705563048831</v>
+        <v>0.2614221382328361</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.706628511270751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3476242963192655</v>
+        <v>0.34762429631926</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3594805410017157</v>
@@ -749,7 +749,7 @@
         <v>-0.1893130205489484</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01163409972941303</v>
+        <v>0.01163409972941284</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-16.71538574973506</v>
+        <v>-16.85978767733599</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.628870845515982</v>
+        <v>-4.70235177887445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.22747665327942</v>
+        <v>-10.77313144910783</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.498705538920616</v>
+        <v>-3.777894250413458</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4429467229855067</v>
+        <v>-0.4460273886162521</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.147546588286788</v>
+        <v>-0.1476025023307864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2952219758398632</v>
+        <v>-0.288361961331398</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1098245606503835</v>
+        <v>-0.1130573991969468</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-8.99658747705152</v>
+        <v>-8.553154259193438</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.853043462414251</v>
+        <v>3.590878248892871</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-2.76714892815939</v>
+        <v>-2.197999063333663</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.286364097418655</v>
+        <v>4.425751365494833</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2668485593670735</v>
+        <v>-0.2536205419594002</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1440592328963752</v>
+        <v>0.1337973789565979</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.08113063357052927</v>
+        <v>-0.06470422065921663</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1566549670174726</v>
+        <v>0.1585289632068365</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.17426784267062</v>
+        <v>-10.32769016621433</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.104250590273253</v>
+        <v>-7.529734153775561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.323464121092371</v>
+        <v>-9.844446284979908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.20545273378479</v>
+        <v>-4.152515803813141</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2533116418068486</v>
+        <v>-0.2526080484294069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2033259552014768</v>
+        <v>-0.2095366140357721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2277493975823761</v>
+        <v>-0.2362745527366906</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1073430609318108</v>
+        <v>-0.1063490584060879</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.279026315814422</v>
+        <v>-2.141307899419288</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.105728305631563</v>
+        <v>1.73395825078957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4435957812898718</v>
+        <v>0.6957126867865929</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.10367248189943</v>
+        <v>3.884359134733066</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.0611409075020997</v>
+        <v>-0.05499328302948524</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06918201644823824</v>
+        <v>0.05430981531539185</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01246510495884404</v>
+        <v>0.01854027042254267</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1184967061492437</v>
+        <v>0.1146557836767907</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-10.10517183135678</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-5.082342580613397</v>
+        <v>-5.082342580613402</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.05754566573386121</v>
@@ -949,7 +949,7 @@
         <v>-0.2338038224097061</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1233984966166391</v>
+        <v>-0.1233984966166392</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.486126091443474</v>
+        <v>-9.868483878298317</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.41032928850854</v>
+        <v>-11.76845935958577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-16.48701490158241</v>
+        <v>-16.30977844752593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.369019608197499</v>
+        <v>-10.24557656493177</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.201220920783343</v>
+        <v>-0.2087862618075124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3270495289313773</v>
+        <v>-0.3096543341388001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3511336331857881</v>
+        <v>-0.3513805808695059</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2137338462046591</v>
+        <v>-0.2299917688275047</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.779168058500229</v>
+        <v>5.358449477379676</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.3154884077008438</v>
+        <v>0.577164368849391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.855591153162347</v>
+        <v>-3.074578495853314</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.413400981638737</v>
+        <v>-0.8037234037005742</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1215511629103392</v>
+        <v>0.1353597415301882</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.00654946303584825</v>
+        <v>0.01687176490355386</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.09083972952885003</v>
+        <v>-0.07083340171004143</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01347172107047156</v>
+        <v>-0.01896426102200907</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-5.29585120556299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.249336677559054</v>
+        <v>-1.249336677559049</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1921768348816031</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1446924602485682</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.03506244248911813</v>
+        <v>-0.03506244248911797</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.772886942564501</v>
+        <v>-9.794707153099584</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.579936989130169</v>
+        <v>-4.353153603555914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.574411535012733</v>
+        <v>-7.858911985146443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.335054455089163</v>
+        <v>-3.481702688148701</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2450533722465337</v>
+        <v>-0.2468196975162517</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1391252192150314</v>
+        <v>-0.1348174593319214</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1990379596563709</v>
+        <v>-0.2082131361931855</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.09088389921951198</v>
+        <v>-0.09435225625451132</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.999914411697604</v>
+        <v>-5.191938810669352</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03219656675125146</v>
+        <v>0.1588863337084121</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.020052965450285</v>
+        <v>-2.977866330005268</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.070953907674638</v>
+        <v>1.15920961757108</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1333328801380544</v>
+        <v>-0.1385705214275403</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001077014676725165</v>
+        <v>0.002921843696130955</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.08532561078641034</v>
+        <v>-0.08404259588828497</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.03113594020430704</v>
+        <v>0.03383510925768682</v>
       </c>
     </row>
     <row r="19">
